--- a/config/grammar.xlsx
+++ b/config/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="0" windowWidth="14805" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="12375" yWindow="0" windowWidth="14805" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -1739,27 +1739,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="28.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="4"/>
     <col min="4" max="4" width="110.125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>85</v>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>157</v>
@@ -1781,13 +1781,13 @@
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>158</v>
@@ -1795,13 +1795,13 @@
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>159</v>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>160</v>
@@ -1823,13 +1823,13 @@
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>161</v>
@@ -1837,13 +1837,13 @@
     </row>
     <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>162</v>
@@ -1851,13 +1851,13 @@
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>163</v>
@@ -1865,13 +1865,13 @@
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>164</v>
@@ -1879,13 +1879,13 @@
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>82</v>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>165</v>
@@ -1893,13 +1893,13 @@
     </row>
     <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>166</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>167</v>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>168</v>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>169</v>
@@ -1949,13 +1949,13 @@
     </row>
     <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>170</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>171</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>172</v>
@@ -1991,13 +1991,13 @@
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>173</v>
@@ -2005,13 +2005,13 @@
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>174</v>
@@ -2019,13 +2019,13 @@
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>175</v>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>176</v>
@@ -2047,13 +2047,13 @@
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>177</v>
@@ -2061,13 +2061,13 @@
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>178</v>
@@ -2075,13 +2075,13 @@
     </row>
     <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>179</v>
@@ -2098,292 +2098,292 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="37.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="4"/>
     <col min="4" max="4" width="96.125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>65</v>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>65</v>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>65</v>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>65</v>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>65</v>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>65</v>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>132</v>
@@ -2399,349 +2399,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="26.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="4"/>
     <col min="4" max="4" width="62.75" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>73</v>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>73</v>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
+      <c r="C22" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>65</v>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>156</v>
@@ -2758,378 +2758,378 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="30.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="97.25" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>93</v>
+      <c r="A2" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>93</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>93</v>
+      <c r="A3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>93</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>93</v>
+      <c r="A4" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>93</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>93</v>
+      <c r="A5" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>93</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>93</v>
+      <c r="A6" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>93</v>
+      <c r="A7" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>93</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>92</v>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>93</v>
+      <c r="A9" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>93</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>65</v>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>93</v>
+      <c r="A11" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>93</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>93</v>
+      <c r="A13" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>93</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>93</v>
+      <c r="A14" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>93</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>93</v>
+      <c r="A15" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>93</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>93</v>
+      <c r="A16" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>93</v>
+      <c r="A17" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>93</v>
+      <c r="A18" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>93</v>
+      <c r="A19" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>93</v>
+      <c r="A20" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>93</v>
+      <c r="A21" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>93</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>65</v>
+      <c r="C22" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>93</v>
+      <c r="A23" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>93</v>
+      <c r="A24" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>93</v>
+      <c r="A25" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>93</v>
+      <c r="A26" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>203</v>
@@ -3137,13 +3137,13 @@
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>204</v>
@@ -3151,13 +3151,13 @@
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>205</v>
@@ -3165,55 +3165,55 @@
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>93</v>
+      <c r="A30" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>93</v>
+      <c r="A31" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>65</v>
+        <v>93</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>93</v>
+      <c r="A32" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>208</v>
@@ -3221,167 +3221,167 @@
     </row>
     <row r="33" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>93</v>
+      <c r="A34" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>93</v>
+      <c r="A35" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>65</v>
+        <v>93</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>93</v>
+      <c r="A36" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>93</v>
+      <c r="A37" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>65</v>
+        <v>93</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>93</v>
+      <c r="A38" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>93</v>
+      <c r="A39" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>65</v>
+        <v>93</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>93</v>
+      <c r="A40" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>93</v>
+      <c r="A41" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>65</v>
+        <v>93</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>93</v>
+      <c r="A42" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>93</v>
+      <c r="A43" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>65</v>
+        <v>93</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>93</v>
+      <c r="A44" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>222</v>
@@ -3397,168 +3397,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17" style="4" customWidth="1"/>
     <col min="4" max="4" width="60" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>225</v>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>226</v>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>239</v>

--- a/config/grammar.xlsx
+++ b/config/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="0" windowWidth="14805" windowHeight="11760"/>
+    <workbookView xWindow="13470" yWindow="0" windowWidth="21105" windowHeight="12495" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="grammar" sheetId="3" r:id="rId4"/>
     <sheet name="app" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
+    <sheet name="引用" sheetId="7" r:id="rId7"/>
+    <sheet name="引用数据" sheetId="9" r:id="rId8"/>
+    <sheet name="corpus" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="549">
   <si>
     <t>名称为中文开头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,405 +67,385 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>删除已被grammar使用的rule</t>
+  </si>
+  <si>
+    <t>删除已被其他rule引用的rule</t>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称为中文开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称为英文开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称为下划线开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称是英语加数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用已有的template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常删除template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除已被grammar使用的template</t>
+  </si>
+  <si>
+    <t>删除已被其他template引用的template</t>
+  </si>
+  <si>
+    <t>修改template</t>
+  </si>
+  <si>
+    <t>修改template，对corpus有影响</t>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称为中文开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称为英文开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称为下划线开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称是英语加数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型datetime+any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型datetime+timepoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型datetime+duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型internal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长最短都为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短1，最长1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会影响corpus的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除被grammar引用的slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称是英文开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称是汉字开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称是下划线开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容包含特殊字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用slot_modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用global_modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例句不匹配任何grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例句同时匹配当前grammar和其他grammar，例句未添加到语料库中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例句同时匹配当前grammar和其他grammar，且例句已添加到语料库中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例句不匹配当前grammar但匹配其他的grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用slot、rule、template名称的大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加weight比重低的语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容为英文时例句匹配不区分大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容为英文时例句匹配不区分全角半角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>名称大小写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正常修改rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改rule，对corpus有影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常删除rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除已被grammar使用的rule</t>
-  </si>
-  <si>
-    <t>删除已被其他rule引用的rule</t>
-  </si>
-  <si>
-    <t>add</t>
+    <t>内容为标点符号时例句匹配不区分全角半角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容不修改，新增例句只匹配当前grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容不修改，新增例句不匹配任何grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容不修改，新增例句不匹配当前grammar但匹配其他的grammar,未添加到语料库中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，新例句也不匹配其他grammar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前提条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称为中文开头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称为英文开头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称为下划线开头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称是英语加数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用已有的template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常删除template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除已被grammar使用的template</t>
-  </si>
-  <si>
-    <t>删除已被其他template引用的template</t>
-  </si>
-  <si>
-    <t>修改template</t>
-  </si>
-  <si>
-    <t>修改template，对corpus有影响</t>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称为中文开头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称为英文开头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称为下划线开头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称是英语加数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型datetime+any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型datetime+timepoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型datetime+duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型internal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型ext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长最短都为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最短1，最长1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会影响corpus的修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除被grammar引用的slot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称是英文开头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称是汉字开头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称是下划线开头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容包含特殊字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容引用rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容引用template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容引用slot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容引用slot_modifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容引用global_modifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例句不匹配任何grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ready</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ready</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ready</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ready</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例句同时匹配当前grammar和其他grammar，例句未添加到语料库中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ready</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例句同时匹配当前grammar和其他grammar，且例句已添加到语料库中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例句不匹配当前grammar但匹配其他的grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用slot、rule、template名称的大小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加weight比重低的语法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容为英文时例句匹配不区分大小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容为英文时例句匹配不区分全角半角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称大小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容为标点符号时例句匹配不区分全角半角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容不修改，新增例句只匹配当前grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容不修改，新增例句不匹配任何grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容不修改，新增例句不匹配当前grammar但匹配其他的grammar,未添加到语料库中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，新例句也不匹配其他grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>changeChange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,70 +461,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"temp3",
-"content":"[=短句=]想吃$(短句)",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"模板",
 "content":"[=短句=]吃$(短句)",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"temp",
-"content":"[=短句=]吃$(短句)",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"_temp",
-"content":"[=短句=]吃$(短句)",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"temp1",
-"content":"[=短句=]吃$(短句)",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"temp2",
-"content":"[=短句=]吃$(短句)",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"temp3",
-"content":"[=短句=]吃$(短句)&lt;temp2(喝)&gt;",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"temp4",
-"content":"[=短句=]吃$(短句)",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"temp4",
-"content":"[=短句=]吃一些$(短句)",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"temp5",
-"content":"[=短句=]想吃$(短句)",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"chidongxi",
-"content":"&lt;temp5(东西)&gt;",
-"corpus":"想吃东西",
-"answer":"null",
 "msg":"提交成功!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,15 +666,6 @@
 "corpus":"看电视",
 "answer":"null",
 "msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"device12",
-"type":"ext",
-"subtype":"null",
-"min":"5",
-"max":"1024",
-"msg":"以下例句的新匹配结果与旧结果不一致,是否确认修改?"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -873,12 +785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"kandianshi",
-"content":"(看|观看|看下)&lt;device&gt;",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"nihao3",
 "content":"**",
 "msg":"提交失败!编译错误!"}</t>
@@ -908,12 +814,6 @@
 "corpus":"听音乐",
 "answer":"null",
 "msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"ting",
-"content":"(听听|听见)&lt;{@=ting}&gt;",
-"msg":"以下例句的新匹配结果与旧结果不一致,是否确认修改?"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1027,22 +927,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"maidianshi",
-"content":"买&lt;device&gt;&lt;{device@=买}&gt;",
-"corpus":"买电视",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"zhuangdianshi",
-"content":"装&lt;device&gt;&lt;{@=装}&gt;",
-"corpus":"装电视",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"xiudianshi",
 "content":"修电视",
 "corpus":"拆电视",
@@ -1056,22 +940,6 @@
 "corpus":"买西瓜",
 "answer":"null",
 "msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"yaochipingguo",
-"content":"吃苹果",
-"corpus":"吃苹果",
-"answer":"null",
-"msg":"以下例句的新匹配结果与旧结果不一致,是否确认修改?"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"xiangchipingguo",
-"content":"吃瓜了",
-"corpus":"吃苹果",
-"answer":"null",
-"msg":"new grammar: can not match any corpus"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1124,12 +992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"temp5",
-"content":"[=短句=]想吃一些$(短句)",
-"msg":"以下例句的新匹配结果与旧结果不一致,是否确认修改?"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"聊天",
 "content":"hello','zhangsan",
 "corpus":"hello，zhangsan",
@@ -1170,6 +1032,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"name":"jianggushi",
+"content":"讲故事",
+"corpus":"讲故事",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"jianggushi",
+"content":"讲故事",
+"corpus":"想听音乐",
+"answer":"null",
+"msg":"new corpus cannot match grammar"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"shuogushi",
+"content":"说故事",
+"corpus":"说故事",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"biangushi",
+"content":"编故事",
+"corpus":"编故事",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"biangushi",
+"content":"编[一段]故事",
+"corpus":"编一段故事",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容修改，新grammar既不匹配当前例句也不匹配之前的例句，新例句也不匹配其他grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"shejigushi",
+"content":"设计故事",
+"corpus":"设计故事",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"shejigushi",
+"content":"设计一段故事",
+"corpus":"设计一个故事",
+"answer":"null",
+"msg":"提交失败!例句不能匹配当前grammar"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"miaoshugushi",
+"content":"描述故事",
+"corpus":"描述故事",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"miaoshugushi",
+"content":"描述(故事|小说)",
+"corpus":"描述战争",
+"answer":"null",
+"msg":"提交失败!例句不能匹配当前grammar"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，新例句匹配其他grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"jiangshugushi",
+"content":"讲述故事",
+"corpus":"讲述故事",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"应用",
+"msg":"模块创建成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"myapp",
+"msg":"模块创建成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"_myapp",
+"msg":"模块创建成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"myapp",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"应用",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"_myapp",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"myapp1",
+"msg":"模块创建成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"myapp1",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xiangchipingguo",
+"content":"吃瓜了",
+"corpus":"吃苹果",
+"answer":"null",
+"msg":"can not match any corpus"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容修改，新grammar不匹配当前例句但匹配之前的例句，新例句也不匹配其他grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"name":"tinggushi",
 "content":"听故事",
 "corpus":"听啥",
@@ -1178,27 +1208,734 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"jianggushi",
-"content":"讲故事",
-"corpus":"讲故事",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"jianggushi",
-"content":"讲故事",
-"corpus":"想听音乐",
-"answer":"null",
-"msg":"new corpus cannot match grammar"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"shuogushi",
-"content":"说故事",
-"corpus":"说故事",
-"answer":"null",
-"msg":"提交成功!"}</t>
+    <t>changeChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"chidongxi",
+"content":"&lt;temp5(东西)&gt;",
+"corpus":"想吃东西",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp5",
+"content":"[=短句=]想吃$(短句)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp4",
+"content":"[=短句=]吃一些$(短句)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp4",
+"content":"[=短句=]吃$(短句)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp3",
+"content":"[=短句=]吃$(短句)&lt;temp2(喝)&gt;",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp2",
+"content":"[=短句=]吃$(短句)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp1",
+"content":"[=短句=]吃$(短句)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"_temp",
+"content":"[=短句=]吃$(短句)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp",
+"content":"[=短句=]吃$(短句)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"myapp1",
+"msg":"already exit"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"kandianshi",
+"content":"(看|观看|看下)&lt;device&gt;",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常修改rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常删除rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>any 规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"我想听type歌曲",
+"content":"我想听&lt;any:1|10&gt;歌曲",
+"corpus":"我想听热门歌曲",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipper规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"skipper",
+"content":"你还好[吗]",
+"corpus":"！！！你还好，，，吗。。。",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用带匹配的slot_modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"tinghuaju",
+"content":"&lt;ting{device@=买}&gt;话剧",
+"corpus":"听话剧",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用带匹配的globle_modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"tingyueqi",
+"content":"&lt;ting{@=听}&gt;钢琴",
+"corpus":"听钢琴",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"maidianshi",
+"content":"买&lt;device&gt;&lt;{device@=买&amp;buy}&gt;",
+"corpus":"买电视",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"zhuangdianshi",
+"content":"装&lt;device&gt;&lt;{@=装&amp;build}&gt;",
+"corpus":"装电视",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> repeater 规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"好累啊",
+"content":"好累(哈|啊|吧|呵)*",
+"corpus":"好累啊啊啊",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加weight比重高的语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"仰望xx",
+"content":"仰望&lt;sky&gt;",
+"corpus":"仰望星空",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍下刘德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他有什么爱好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物+歌手(自定义)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点+州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点+国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点+省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点+城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点+区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点+景点（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲+热门歌曲（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑+热门专辑（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌词+国语歌词（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动（自定义）+球类运动（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用类型为number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用类型为float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用类型为datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你听过张学友唱的歌吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他的唱功如何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张学友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要去北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它有什么景点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你去过大洋洲吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它面积多大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大洋洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去美国旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它有什么好玩的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省大不大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它在什么位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想去武汉玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它漂亮吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦东新区风景好不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它有山有水吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦东新区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方明珠好不好玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它有什么特色小吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方明珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风破好不好听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它是谁唱的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七里香这首歌火不火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它什么时候发布的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七里香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你听过叶惠美专辑吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶惠美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天专辑怎么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它好听吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘不了听过没</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它是哪首歌里的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是谁是国语歌词吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它出自哪首歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽毛球是什么运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它怎么运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽毛球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮球是什么球类运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它怎么操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你今年有3岁了吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那年你在干什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁算出来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋节要开会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那时候的日子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它有哪几首歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date-地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它有什么景点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉我北京时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather-地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它有什么景点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天北京有雨吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那时候的日子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要去武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉我那里的天气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather-时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天要开会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海的区号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它有什么景点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode-地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要去成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那里的区号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它的景点是什么啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它在什么位置你知否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科非洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它面积多大你知道吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它漂亮吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科浦东新区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它有山有水吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科毛泽东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他有什么爱好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要去香港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省大不大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你去过欧洲吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想去武汉玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨浦区风景好不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你听过周杰伦唱的歌吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那天武汉有雨吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍一下它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科-地点＋国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科-地点+省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科-地点+州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科-地点+城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科-地点+区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科-人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科-地点+城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京天气如何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛泽东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨浦区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周杰伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1206,67 +1943,138 @@
 "content":"说些故事",
 "corpus":"说些故事",
 "answer":"null",
-"msg":"以下例句的新匹配结果与旧结果不一致,是否确认修改?"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"biangushi",
-"content":"编故事",
-"corpus":"编故事",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"biangushi",
-"content":"编[一段]故事",
-"corpus":"编一段故事",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容修改，新grammar既不匹配当前例句也不匹配之前的例句，新例句也不匹配其他grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"shejigushi",
-"content":"设计故事",
-"corpus":"设计故事",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"shejigushi",
-"content":"设计一段故事",
-"corpus":"设计一个故事",
-"answer":"null",
-"msg":"提交失败!例句不能匹配当前grammar"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"miaoshugushi",
-"content":"描述故事",
-"corpus":"描述故事",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"miaoshugushi",
-"content":"描述(故事|小说)",
-"corpus":"描述战争",
-"answer":"null",
-"msg":"提交失败!例句不能匹配当前grammar"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，新例句匹配其他grammar</t>
+"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"ting",
+"content":"(听听|听见)&lt;{@=ting}&gt;",
+"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp5",
+"content":"[=短句=]想吃一些$(短句)",
+"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device12",
+"type":"ext",
+"subtype":"null",
+"min":"5",
+"max":"1024",
+"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科四川省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改rule，corpus无匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改rule，corpus有匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"听音乐",
+"content":"听音乐",
+"corpus":"听音乐",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"ting",
+"content":"(听听|听见)&lt;{@=ting}&gt;",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"仰望星空",
+"content":"仰望星空",
+"corpus":"仰望星空",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"yaochipingguo",
+"content":"吃苹果",
+"corpus":"吃苹果",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"说故事",
+"content":"说故事",
+"corpus":"说故事",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，新例句也不匹配其他grammar，之前例句匹配其他grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"shuogushi",
+"content":"说些故事",
+"corpus":"说些故事",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，新例句匹配其他grammar,之前例句匹配其他grammar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"jiangshugushi",
+"content":"讲述一个故事",
+"corpus":"吃苹果",
+"answer":"null",
+"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"讲述故事",
 "content":"讲述故事",
 "corpus":"讲述故事",
 "answer":"null",
@@ -1274,89 +2082,1128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>addChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"name":"jiangshugushi",
-"content":"讲述一个故事",
-"corpus":"讲述一个故事",
-"answer":"null",
-"msg":"以下例句的新匹配结果与旧结果不一致,是否确认修改?"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>changeChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称大小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"应用",
-"msg":"模块创建成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"myapp",
-"msg":"模块创建成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"_myapp",
-"msg":"模块创建成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"myapp1",
-"msg":"already exit"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"myapp1",
-"msg":"already exit"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"myapp",
-"msg":"删除成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"应用",
-"msg":"删除成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"_myapp",
-"msg":"删除成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"myapp1",
-"msg":"模块创建成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"myapp1",
-"msg":"删除成功!"}</t>
+"content":"吃苹果",
+"corpus":"吃苹果",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编一段故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听小说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想听流行歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello,zhangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听你在吃水果，看电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听钢琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听话剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好累啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！你还好，，，吗。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ｊｉａｎｇｈｕａ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试例句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "吃苹果",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "编故事",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "编一段故事",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "听小说",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "好累啊啊",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "我想听流行歌曲",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "hello,zhangsan",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "听你在吃水果，看电视",
+        "slots": [
+          {
+            "name": "device",
+            "value": "电视"
+          }
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "听钢琴",
+        "slots": [
+        ],
+        "modifier": [
+          "听"
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "装电视",
+        "slots": [
+          {
+            "name": "device",
+            "value": "电视"
+          }
+        ],
+        "modifier": [
+          "build",
+          "装"
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "听话剧",
+        "slots": [
+          {
+            "modifier": [
+              "买"
+            ],
+            "name": "device",
+            "value": ""
+          }
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "买冰箱",
+        "slots": [
+          {
+            "modifier": [
+              "buy",
+              "买"
+            ],
+            "name": "device",
+            "value": "冰箱"
+          }
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "看家电",
+        "slots": [
+          {
+            "name": "device",
+            "value": "家电"
+          }
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "吃水果",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "听音乐",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "！！！你还好，，，吗。。。",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "ｊｉａｎｇｈｕａ",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+  </si>
+  <si>
+    <t>人物+歌手(自定义)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"人物",
+"type":"ext",
+"mainType":"人物",
+"subType":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"歌手",
+"type":"ext",
+"mainType":"人物",
+"subType":"歌手",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点+州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点+国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点+省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点+城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点+区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点+景点（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲+热门歌曲（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑+热门专辑（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌词+国语歌词（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动（自定义）+球类运动（自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用类型为number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用类型为float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用类型为datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"地点",
+"type":"ext",
+"mainType":"地点",
+"subType":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"州",
+"type":"ext",
+"mainType":"地点",
+"subType":"州",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"国家",
+"type":"ext",
+"mainType":"地点",
+"subType":"国家",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"省",
+"type":"ext",
+"mainType":"地点",
+"subType":"省",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"城市",
+"type":"ext",
+"mainType":"地点",
+"subType":"城市",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"区县",
+"type":"ext",
+"mainType":"地点",
+"subType":"区县",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"景点",
+"type":"ext",
+"mainType":"地点",
+"subType":"景点",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"歌曲",
+"type":"ext",
+"mainType":"歌曲",
+"subType":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"热门歌曲",
+"type":"ext",
+"mainType":"歌曲",
+"subType":"热门歌曲",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"专辑",
+"type":"ext",
+"mainType":"专辑",
+"subType":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"热门专辑",
+"type":"ext",
+"mainType":"专辑",
+"subType":"热门专辑",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"歌词",
+"type":"ext",
+"mainType":"歌词",
+"subType":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"国语歌词",
+"type":"ext",
+"mainType":"歌词",
+"subType":"国语歌词",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"运动",
+"type":"ext",
+"mainType":"运动",
+"subType":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"球类运动",
+"type":"ext",
+"mainType":"运动",
+"subType":"球类运动",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"年龄",
+"type":"number",
+"subtype":"null",
+"min":"1",
+"max":"50",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"浮点",
+"type":"float",
+"subtype":"null",
+"min":"1",
+"max":"50",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"时间",
+"type":"datetime",
+"subtype":"null",
+"min":"1",
+"max":"50",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"介绍下人物",
+"content":"介绍下&lt;人物&gt;",
+"corpus":"介绍下王力宏",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"他有什么爱好",
+"content":"他&lt;{人物@=last}&gt;有什么爱好",
+"corpus":"他有什么爱好",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"你听过xxx唱的歌吗",
+"content":"你听过&lt;歌手&gt;唱的歌吗",
+"corpus":"你听过xxx唱的歌吗",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"他的唱功如何",
+"content":"他&lt;{歌手@=last}&gt;的唱功如何",
+"corpus":"他的唱功如何",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"我要去xxx",
+"content":"我要去&lt;地点&gt;",
+"corpus":"我要去xxx",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它有什么景点",
+"content":"它&lt;{地点@=last}&gt;有什么景点",
+"corpus":"它有什么景点",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"你去过xxx吗",
+"content":"你去过&lt;州&gt;吗",
+"corpus":"你去过xxx吗",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"去xxx旅游",
+"content":"去&lt;国家&gt;旅游",
+"corpus":"去xxx旅游",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xxx大不大",
+"content":"&lt;省&gt;大不大",
+"corpus":"xxx大不大",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"想去xxx玩",
+"content":"想去&lt;城市&gt;玩",
+"corpus":"想去xxx玩",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它漂亮吗",
+"content":"它&lt;{城市@=last}&gt;漂亮吗",
+"corpus":"它漂亮吗",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xxx风景好不好",
+"content":"&lt;区县&gt;风景好不好",
+"corpus":"xxx风景好不好",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它有山有水吗",
+"content":"它&lt;{区县@=last}&gt;有山有水吗",
+"corpus":"它有山有水吗",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xxx好不好玩",
+"content":"&lt;景点&gt;好不好玩",
+"corpus":"xxx好不好玩",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它有什么特色小吃",
+"content":"它&lt;{景点@=last}&gt;有什么特色小吃",
+"corpus":"它有什么特色小吃",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xxx好不好听",
+"content":"&lt;歌曲&gt;好不好听",
+"corpus":"xxx好不好听",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它是谁唱的",
+"content":"它&lt;{歌曲@=last}&gt;是谁唱的",
+"corpus":"它是谁唱的",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xxx这首歌火不火",
+"content":"&lt;热门歌曲&gt;这首歌火不火",
+"corpus":"xxx这首歌火不火",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它什么时候发布的",
+"content":"它&lt;{热门歌曲@=last}&gt;什么时候发布的",
+"corpus":"它什么时候发布的",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"你听过xxx专辑吗",
+"content":"你听过&lt;专辑&gt;专辑吗",
+"corpus":"你听过xxx专辑吗",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它有哪几首歌",
+"content":"它&lt;{专辑@=last}&gt;有哪几首歌",
+"corpus":"它有哪几首歌",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门专辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xxx专辑怎么样",
+"content":"&lt;热门专辑&gt;怎么样",
+"corpus":"xxx专辑怎么样",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它好听吗",
+"content":"它&lt;{热门专辑@=last}&gt;好听吗",
+"corpus":"它好听吗",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xxx听过没",
+"content":"&lt;歌词&gt;听过没",
+"corpus":"xxx听过没",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它是哪首歌里的",
+"content":"它&lt;{歌词@=last}&gt;是哪首歌里的",
+"corpus":"它是哪首歌里的",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国语歌词</t>
+  </si>
+  <si>
+    <t>{"name":"xxx是国语歌词吗",
+"content":"&lt;国语歌词&gt;是国语歌词吗",
+"corpus":"xxx是国语歌词吗",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xxx是什么运动",
+"content":"&lt;运动&gt;是什么运动",
+"corpus":"xxx是什么运动",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它怎么运动",
+"content":"它&lt;{运动@=last}&gt;怎么运动",
+"corpus":"它怎么运动",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球类运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xxx是什么球类运动",
+"content":"&lt;球类运动&gt;是什么球类运动",
+"corpus":"xxx是什么球类运动",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它怎么操作",
+"content":"它&lt;{球类运动@=last}&gt;怎么操作",
+"corpus":"它怎么操作",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"你今年有xx岁了吗",
+"content":"你今年有&lt;年龄&gt;岁了吗",
+"corpus":"你今年有7岁了吗",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"那年你在干什么",
+"content":"那年&lt;{年龄@=last}&gt;你在干什么",
+"corpus":"那年你在干什么",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"答案是xxx吗",
+"content":"答案是&lt;浮点&gt;吗",
+"corpus":"答案是3吗",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xxx要开会",
+"content":"&lt;时间&gt;要开会",
+"corpus":"后天要开会",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"那时候的日子",
+"content":"那时候&lt;{时间@=last}&gt;的日子",
+"corpus":"那时候的日子",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它出自哪首歌",
+"content":"它出自&lt;{国语歌词@=last}&gt;哪首歌",
+"corpus":"它出自哪首歌",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"谁算出来的",
+"content":"谁算出来的&lt;{浮点@=last}&gt;",
+"corpus":"谁算出来的",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案是5吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它有什么好玩的",
+"content":"(它有什么好玩的|它的景点是什么啊)&lt;{国家@=last}&gt;",
+"corpus":"它有什么好玩的",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它面积多大",
+"content":"(它面积多大|它面积多大你知道吗)&lt;{州@=last}&gt;",
+"corpus":"它面积多大",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它在什么位置",
+"content":"(它在什么位置|它在什么位置你知否)&lt;{省@=last}&gt;",
+"corpus":"它在什么位置",
+"answer":"null",
+"msg":"提交成功!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1364,7 +3211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,6 +3241,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1418,10 +3279,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1436,9 +3298,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 4 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1737,32 +3611,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="4"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="15.75" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="110.125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1770,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1784,13 +3659,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1798,13 +3673,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1812,13 +3687,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1826,27 +3701,27 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1854,13 +3729,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1868,27 +3743,27 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1896,27 +3771,27 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1924,13 +3799,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1938,13 +3813,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1952,139 +3827,167 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>394</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>386</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>175</v>
+        <v>94</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>179</v>
+      <c r="D25" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2098,295 +4001,296 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="4"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="15.75" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="96.125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>386</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>202</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2399,352 +4303,353 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="4"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="15.75" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.75" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2756,15 +4661,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="73.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="97.25" style="4" customWidth="1"/>
@@ -2773,618 +4678,772 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>196</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>198</v>
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>65</v>
+      <c r="A27" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>204</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>102</v>
+      <c r="A28" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>65</v>
+      <c r="A29" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>65</v>
+      <c r="A33" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>109</v>
+      <c r="A34" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>65</v>
+      <c r="A35" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>110</v>
+      <c r="A36" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>215</v>
+      <c r="A40" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>34</v>
+        <v>383</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>221</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>223</v>
+        <v>400</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>222</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3398,7 +5457,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3412,16 +5471,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -3429,27 +5488,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -3457,27 +5516,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -3485,27 +5544,27 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -3513,55 +5572,55 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3574,43 +5633,1772 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>66</v>
+      <c r="A1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" t="s">
+        <v>545</v>
+      </c>
+      <c r="C20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>336</v>
+      </c>
+      <c r="B25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>336</v>
+      </c>
+      <c r="B26" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" t="s">
+        <v>341</v>
+      </c>
+      <c r="C28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" t="s">
+        <v>345</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B30" t="s">
+        <v>390</v>
+      </c>
+      <c r="C30" t="s">
+        <v>346</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>365</v>
+      </c>
+      <c r="B31" t="s">
+        <v>347</v>
+      </c>
+      <c r="C31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33" t="s">
+        <v>352</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>368</v>
+      </c>
+      <c r="B34" t="s">
+        <v>353</v>
+      </c>
+      <c r="C34" t="s">
+        <v>354</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>363</v>
+      </c>
+      <c r="B35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" t="s">
+        <v>362</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>364</v>
+      </c>
+      <c r="B36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>365</v>
+      </c>
+      <c r="B37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>366</v>
+      </c>
+      <c r="B38" t="s">
+        <v>358</v>
+      </c>
+      <c r="C38" t="s">
+        <v>362</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>367</v>
+      </c>
+      <c r="B39" t="s">
+        <v>359</v>
+      </c>
+      <c r="C39" t="s">
+        <v>362</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40" t="s">
+        <v>360</v>
+      </c>
+      <c r="C40" t="s">
+        <v>362</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>343</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>115</v>
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>466</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>468</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>527</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>527</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>529</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>529</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>532</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>532</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>535</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>535</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>538</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>538</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>540</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>540</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="324" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="337.5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="364.5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="378" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="324" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C14" t="s">
+        <v>424</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" t="s">
+        <v>430</v>
+      </c>
+      <c r="C17" t="s">
+        <v>428</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B18" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" t="s">
+        <v>429</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/config/grammar.xlsx
+++ b/config/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="0" windowWidth="21105" windowHeight="12495" activeTab="7"/>
+    <workbookView xWindow="13470" yWindow="0" windowWidth="21105" windowHeight="12495" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="550">
   <si>
     <t>名称为中文开头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3204,6 +3204,15 @@
 "corpus":"它在什么位置",
 "answer":"null",
 "msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"skya",
+"type":"ext",
+"subtype":"null",
+"min":"1",
+"max":"50",
+"msg":"提交成!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5631,10 +5640,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5670,6 +5679,20 @@
       </c>
       <c r="D2" s="5" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -6265,7 +6288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -7139,7 +7162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/config/grammar.xlsx
+++ b/config/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="0" windowWidth="21105" windowHeight="12495" activeTab="5"/>
+    <workbookView xWindow="13470" yWindow="0" windowWidth="21105" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -710,12 +710,6 @@
 "min":"1",
 "max":"1024",
 "msg":"删除失败!已被使用!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"你好",
-"content":"你好",
-"msg":"提交成功!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3212,6 +3206,12 @@
 "subtype":"null",
 "min":"1",
 "max":"50",
+"msg":"提交成!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"你好",
+"content":"你好",
 "msg":"提交成!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3622,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3660,7 +3660,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>141</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3674,7 +3674,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3688,7 +3688,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3702,7 +3702,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3716,7 +3716,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -3730,7 +3730,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3744,7 +3744,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3758,7 +3758,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3772,7 +3772,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3786,7 +3786,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -3800,7 +3800,7 @@
         <v>82</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3814,7 +3814,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3828,7 +3828,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3842,12 +3842,12 @@
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>80</v>
@@ -3856,12 +3856,12 @@
         <v>13</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>80</v>
@@ -3870,7 +3870,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -3884,21 +3884,21 @@
         <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -3912,26 +3912,26 @@
         <v>94</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>80</v>
@@ -3940,7 +3940,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3954,7 +3954,7 @@
         <v>82</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -3968,7 +3968,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3982,7 +3982,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3996,7 +3996,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4061,7 +4061,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4075,7 +4075,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4089,7 +4089,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4103,7 +4103,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4117,7 +4117,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4131,7 +4131,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4145,7 +4145,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4159,7 +4159,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4173,7 +4173,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4184,10 +4184,10 @@
         <v>68</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4588,7 +4588,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -4710,7 +4710,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4724,7 +4724,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4738,7 +4738,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4752,7 +4752,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4766,7 +4766,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4780,7 +4780,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4794,7 +4794,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4808,7 +4808,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4822,7 +4822,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4836,7 +4836,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -4850,7 +4850,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4864,7 +4864,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4878,12 +4878,12 @@
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>67</v>
@@ -4892,7 +4892,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4906,12 +4906,12 @@
         <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>67</v>
@@ -4920,7 +4920,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4934,7 +4934,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4948,7 +4948,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4962,7 +4962,7 @@
         <v>94</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4976,7 +4976,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4990,7 +4990,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5004,7 +5004,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -5018,7 +5018,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5032,7 +5032,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5046,12 +5046,12 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>67</v>
@@ -5060,7 +5060,7 @@
         <v>94</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5074,7 +5074,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5088,7 +5088,7 @@
         <v>30</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5102,12 +5102,12 @@
         <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>67</v>
@@ -5116,12 +5116,12 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>67</v>
@@ -5130,12 +5130,12 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>67</v>
@@ -5144,7 +5144,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5158,7 +5158,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5172,7 +5172,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5186,7 +5186,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5200,7 +5200,7 @@
         <v>107</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5228,7 +5228,7 @@
         <v>74</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5242,7 +5242,7 @@
         <v>30</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5256,7 +5256,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5270,7 +5270,7 @@
         <v>30</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5281,10 +5281,10 @@
         <v>89</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5295,24 +5295,24 @@
         <v>67</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5326,7 +5326,7 @@
         <v>30</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5340,7 +5340,7 @@
         <v>74</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5354,12 +5354,12 @@
         <v>30</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>89</v>
@@ -5368,7 +5368,7 @@
         <v>74</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5382,12 +5382,12 @@
         <v>30</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>89</v>
@@ -5396,7 +5396,7 @@
         <v>74</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5410,49 +5410,49 @@
         <v>30</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>405</v>
-      </c>
       <c r="C54" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5497,27 +5497,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -5525,27 +5525,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -5553,27 +5553,27 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -5581,55 +5581,55 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5642,7 +5642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -5658,7 +5658,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>29</v>
@@ -5678,7 +5678,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -5692,7 +5692,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -5719,265 +5719,265 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s">
         <v>248</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>249</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" t="s">
         <v>273</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>274</v>
-      </c>
-      <c r="D3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" t="s">
         <v>276</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>277</v>
-      </c>
-      <c r="D4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" t="s">
         <v>279</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>280</v>
-      </c>
-      <c r="D5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" t="s">
         <v>282</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>283</v>
-      </c>
-      <c r="D6" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
         <v>285</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>286</v>
-      </c>
-      <c r="D7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" t="s">
         <v>288</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>289</v>
-      </c>
-      <c r="D8" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" t="s">
         <v>291</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>292</v>
-      </c>
-      <c r="D9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" t="s">
         <v>294</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>295</v>
-      </c>
-      <c r="D10" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" t="s">
         <v>297</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>298</v>
-      </c>
-      <c r="D11" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" t="s">
         <v>300</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>301</v>
-      </c>
-      <c r="D12" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" t="s">
         <v>303</v>
-      </c>
-      <c r="C13" t="s">
-        <v>326</v>
-      </c>
-      <c r="D13" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" t="s">
         <v>305</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>306</v>
-      </c>
-      <c r="D14" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" t="s">
         <v>308</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>309</v>
-      </c>
-      <c r="D15" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" t="s">
         <v>311</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>312</v>
-      </c>
-      <c r="D16" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" t="s">
         <v>314</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>315</v>
-      </c>
-      <c r="D17" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" t="s">
         <v>317</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>318</v>
-      </c>
-      <c r="D18" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" t="s">
         <v>320</v>
-      </c>
-      <c r="C19" t="s">
-        <v>321</v>
       </c>
       <c r="D19" s="9">
         <v>3</v>
@@ -5985,13 +5985,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D20" s="9">
         <v>5</v>
@@ -5999,282 +5999,282 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" t="s">
         <v>323</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" t="s">
         <v>327</v>
       </c>
-      <c r="B22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C22" t="s">
-        <v>328</v>
-      </c>
       <c r="D22" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" t="s">
         <v>330</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="C23" t="s">
-        <v>331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" t="s">
         <v>334</v>
       </c>
-      <c r="C24" t="s">
-        <v>335</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" t="s">
         <v>332</v>
       </c>
-      <c r="C25" t="s">
-        <v>333</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>335</v>
+      </c>
+      <c r="B26" t="s">
         <v>336</v>
       </c>
-      <c r="B26" t="s">
-        <v>337</v>
-      </c>
       <c r="C26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B27" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" t="s">
         <v>338</v>
       </c>
-      <c r="C27" t="s">
-        <v>339</v>
-      </c>
       <c r="D27" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" t="s">
         <v>340</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>341</v>
       </c>
-      <c r="C28" t="s">
-        <v>342</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" t="s">
         <v>344</v>
       </c>
-      <c r="C29" t="s">
-        <v>345</v>
-      </c>
       <c r="D29" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C31" t="s">
         <v>347</v>
       </c>
-      <c r="C31" t="s">
-        <v>348</v>
-      </c>
       <c r="D31" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" t="s">
         <v>349</v>
       </c>
-      <c r="C32" t="s">
-        <v>350</v>
-      </c>
       <c r="D32" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C33" t="s">
         <v>351</v>
       </c>
-      <c r="C33" t="s">
-        <v>352</v>
-      </c>
       <c r="D33" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" t="s">
         <v>353</v>
       </c>
-      <c r="C34" t="s">
-        <v>354</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -6314,287 +6314,287 @@
     </row>
     <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>67</v>
@@ -6603,12 +6603,12 @@
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>67</v>
@@ -6617,12 +6617,12 @@
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>67</v>
@@ -6631,12 +6631,12 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>67</v>
@@ -6645,12 +6645,12 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>67</v>
@@ -6659,12 +6659,12 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>67</v>
@@ -6673,12 +6673,12 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>67</v>
@@ -6687,12 +6687,12 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>67</v>
@@ -6701,12 +6701,12 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>67</v>
@@ -6715,12 +6715,12 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>67</v>
@@ -6729,12 +6729,12 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>67</v>
@@ -6743,12 +6743,12 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>67</v>
@@ -6757,12 +6757,12 @@
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>67</v>
@@ -6771,12 +6771,12 @@
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>67</v>
@@ -6785,12 +6785,12 @@
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>67</v>
@@ -6799,12 +6799,12 @@
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>67</v>
@@ -6813,12 +6813,12 @@
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>67</v>
@@ -6827,12 +6827,12 @@
         <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>67</v>
@@ -6841,12 +6841,12 @@
         <v>13</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>67</v>
@@ -6855,12 +6855,12 @@
         <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>67</v>
@@ -6869,12 +6869,12 @@
         <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>67</v>
@@ -6883,12 +6883,12 @@
         <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>67</v>
@@ -6897,12 +6897,12 @@
         <v>13</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>67</v>
@@ -6911,12 +6911,12 @@
         <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>67</v>
@@ -6925,12 +6925,12 @@
         <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>67</v>
@@ -6939,12 +6939,12 @@
         <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>67</v>
@@ -6953,12 +6953,12 @@
         <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>67</v>
@@ -6967,12 +6967,12 @@
         <v>13</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>67</v>
@@ -6981,12 +6981,12 @@
         <v>13</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>67</v>
@@ -6995,12 +6995,12 @@
         <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>67</v>
@@ -7009,12 +7009,12 @@
         <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>67</v>
@@ -7023,12 +7023,12 @@
         <v>13</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>67</v>
@@ -7037,12 +7037,12 @@
         <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>67</v>
@@ -7051,12 +7051,12 @@
         <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>67</v>
@@ -7065,12 +7065,12 @@
         <v>13</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>67</v>
@@ -7079,12 +7079,12 @@
         <v>13</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>67</v>
@@ -7093,12 +7093,12 @@
         <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>67</v>
@@ -7107,12 +7107,12 @@
         <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>67</v>
@@ -7121,12 +7121,12 @@
         <v>13</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>67</v>
@@ -7135,12 +7135,12 @@
         <v>13</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>67</v>
@@ -7149,7 +7149,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -7177,251 +7177,251 @@
         <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="B2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="324" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="378" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="324" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/config/grammar.xlsx
+++ b/config/grammar.xlsx
@@ -3212,7 +3212,7 @@
   <si>
     <t>{"name":"你好",
 "content":"你好",
-"msg":"提交成!"}</t>
+"msg":"提交成功!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/config/grammar.xlsx
+++ b/config/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="0" windowWidth="21105" windowHeight="12495"/>
+    <workbookView xWindow="13470" yWindow="0" windowWidth="21105" windowHeight="12495" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="571">
   <si>
     <t>名称为中文开头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,15 +733,6 @@
   <si>
     <t>{"name":"nihao2",
 "content":"&lt;nihao1&gt;",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"action",
-"type":"internal",
-"subtype":"null",
-"min":"20",
-"max":"50",
 "msg":"提交成功!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3185,14 +3176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"它面积多大",
-"content":"(它面积多大|它面积多大你知道吗)&lt;{州@=last}&gt;",
-"corpus":"它面积多大",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"它在什么位置",
 "content":"(它在什么位置|它在什么位置你知否)&lt;{省@=last}&gt;",
 "corpus":"它在什么位置",
@@ -3213,6 +3196,164 @@
     <t>{"name":"你好",
 "content":"你好",
 "msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它面积多大",
+"content":"它&lt;{州@=last}&gt;面积多大[你知道吗]",
+"corpus":"它面积多大",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容包含slot赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"action",
+"content":"动作&lt;{action=动作}&gt;",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"zuodongzuo",
+"content":"做&lt;action&gt;",
+"corpus":"做动作",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改slot赋值，影响corpus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"action",
+"content":"动作&lt;{action=操作}&gt;",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改slot_modifier,影响corpus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"open",
+"content":"(开启|打开|开下)&lt;{action@=开}&gt;",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改globe_modifier,影响corpus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"ting",
+"content":"(听|听见)&lt;{@=听}&gt;",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"kaimeng",
+"content":"&lt;open&gt;门",
+"corpus":"打开门",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"action",
+"type":"internal",
+"subtype":"null",
+"min":"1",
+"max":"50",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"tingzaoyin",
+"content":"&lt;ting&gt;噪音",
+"corpus":"听见噪音",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“+=”运算符的运用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"kaifa",
+"type":"internal",
+"subtype":"null",
+"min":"1",
+"max":"1024",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"kaifa",
+"content":"(开发|制造)&lt;{kaifa=开发}&gt;",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"kaifadianshi",
+"content":"&lt;kaifa&gt;电视&lt;{kaifa+=电视}&gt;",
+"corpus":"开发电视",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改slot赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"kaifadianshi",
+"content":"&lt;kaifa&gt;电视&lt;{kaifa+=TV}&gt;",
+"corpus":"开发电视",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "开发电视",
+        "slots": [
+          {
+            "name": "kaifa",
+            "value": "开发TV"
+          }
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发电视</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3620,10 +3761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3660,7 +3801,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3730,7 +3871,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>145</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3744,40 +3885,40 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>147</v>
+      <c r="D9" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>556</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>148</v>
+        <v>554</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>80</v>
@@ -3786,40 +3927,40 @@
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>150</v>
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>558</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>554</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>225</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>549</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>80</v>
@@ -3828,175 +3969,273 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>152</v>
+      <c r="D15" s="3" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>228</v>
+        <v>552</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>553</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>13</v>
+        <v>554</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>153</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>395</v>
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>394</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>159</v>
+      <c r="D25" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>392</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>160</v>
+      <c r="D32" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4061,7 +4300,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4075,7 +4314,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4089,7 +4328,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4103,7 +4342,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4117,7 +4356,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4131,7 +4370,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4145,7 +4384,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4159,7 +4398,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4173,7 +4412,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4184,10 +4423,10 @@
         <v>68</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4312,8 +4551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4588,7 +4827,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -4670,10 +4909,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4710,7 +4949,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4724,7 +4963,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4738,7 +4977,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4752,7 +4991,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4766,7 +5005,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4780,7 +5019,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4794,7 +5033,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4808,7 +5047,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4822,7 +5061,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4836,7 +5075,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -4850,7 +5089,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4864,7 +5103,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4878,12 +5117,12 @@
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>67</v>
@@ -4892,7 +5131,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -4906,12 +5145,12 @@
         <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>67</v>
@@ -4920,68 +5159,68 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>61</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>172</v>
+        <v>13</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>563</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>398</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>567</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>211</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>89</v>
@@ -4990,12 +5229,12 @@
         <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>89</v>
@@ -5004,26 +5243,26 @@
         <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>175</v>
+        <v>94</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>89</v>
@@ -5032,54 +5271,54 @@
         <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>177</v>
+      <c r="D28" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>89</v>
@@ -5088,68 +5327,68 @@
         <v>30</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>230</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>61</v>
+      <c r="A34" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>89</v>
@@ -5158,53 +5397,53 @@
         <v>30</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>98</v>
+      <c r="A35" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>61</v>
+      <c r="A36" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -5214,21 +5453,21 @@
         <v>30</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>104</v>
+      <c r="A39" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5242,21 +5481,21 @@
         <v>30</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5270,49 +5509,49 @@
         <v>30</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>382</v>
+        <v>74</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>383</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>399</v>
+        <v>30</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>400</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>401</v>
+        <v>105</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>402</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5326,21 +5565,21 @@
         <v>30</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>188</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5348,27 +5587,27 @@
         <v>61</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>30</v>
+        <v>398</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>190</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>191</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5382,12 +5621,12 @@
         <v>30</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>89</v>
@@ -5396,7 +5635,7 @@
         <v>74</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5410,49 +5649,105 @@
         <v>30</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>384</v>
+        <v>74</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>406</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>403</v>
+      <c r="A54" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>404</v>
+        <v>89</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>408</v>
+        <v>30</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>407</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B55" s="4" t="s">
+    </row>
+    <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>409</v>
+      <c r="C59" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -5497,27 +5792,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -5525,27 +5820,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -5553,27 +5848,27 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -5581,55 +5876,55 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5658,7 +5953,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>29</v>
@@ -5678,7 +5973,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -5692,7 +5987,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -5706,7 +6001,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5719,265 +6014,265 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
         <v>247</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>248</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" t="s">
         <v>272</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>273</v>
-      </c>
-      <c r="D3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" t="s">
         <v>275</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>276</v>
-      </c>
-      <c r="D4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
         <v>278</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>279</v>
-      </c>
-      <c r="D5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" t="s">
         <v>281</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>282</v>
-      </c>
-      <c r="D6" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" t="s">
         <v>284</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>285</v>
-      </c>
-      <c r="D7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
         <v>287</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>288</v>
-      </c>
-      <c r="D8" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" t="s">
         <v>290</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>291</v>
-      </c>
-      <c r="D9" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
         <v>293</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>294</v>
-      </c>
-      <c r="D10" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" t="s">
         <v>296</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>297</v>
-      </c>
-      <c r="D11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" t="s">
         <v>299</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>300</v>
-      </c>
-      <c r="D12" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" t="s">
         <v>302</v>
-      </c>
-      <c r="C13" t="s">
-        <v>325</v>
-      </c>
-      <c r="D13" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" t="s">
         <v>304</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>305</v>
-      </c>
-      <c r="D14" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" t="s">
         <v>307</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>308</v>
-      </c>
-      <c r="D15" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" t="s">
         <v>310</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>311</v>
-      </c>
-      <c r="D16" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" t="s">
         <v>313</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>314</v>
-      </c>
-      <c r="D17" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" t="s">
         <v>316</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>317</v>
-      </c>
-      <c r="D18" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" t="s">
         <v>319</v>
-      </c>
-      <c r="C19" t="s">
-        <v>320</v>
       </c>
       <c r="D19" s="9">
         <v>3</v>
@@ -5985,13 +6280,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D20" s="9">
         <v>5</v>
@@ -5999,282 +6294,282 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" t="s">
         <v>322</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" t="s">
         <v>326</v>
       </c>
-      <c r="B22" t="s">
-        <v>328</v>
-      </c>
-      <c r="C22" t="s">
-        <v>327</v>
-      </c>
       <c r="D22" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" t="s">
         <v>329</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="C23" t="s">
-        <v>330</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B24" t="s">
+        <v>332</v>
+      </c>
+      <c r="C24" t="s">
         <v>333</v>
       </c>
-      <c r="C24" t="s">
-        <v>334</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B25" t="s">
+        <v>330</v>
+      </c>
+      <c r="C25" t="s">
         <v>331</v>
       </c>
-      <c r="C25" t="s">
-        <v>332</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" t="s">
         <v>335</v>
       </c>
-      <c r="B26" t="s">
-        <v>336</v>
-      </c>
       <c r="C26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" t="s">
         <v>337</v>
       </c>
-      <c r="C27" t="s">
-        <v>338</v>
-      </c>
       <c r="D27" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B28" t="s">
         <v>339</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>340</v>
       </c>
-      <c r="C28" t="s">
-        <v>341</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C29" t="s">
         <v>343</v>
       </c>
-      <c r="C29" t="s">
-        <v>344</v>
-      </c>
       <c r="D29" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
+        <v>345</v>
+      </c>
+      <c r="C31" t="s">
         <v>346</v>
       </c>
-      <c r="C31" t="s">
-        <v>347</v>
-      </c>
       <c r="D31" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B32" t="s">
+        <v>347</v>
+      </c>
+      <c r="C32" t="s">
         <v>348</v>
       </c>
-      <c r="C32" t="s">
-        <v>349</v>
-      </c>
       <c r="D32" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" t="s">
         <v>350</v>
       </c>
-      <c r="C33" t="s">
-        <v>351</v>
-      </c>
       <c r="D33" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" t="s">
         <v>352</v>
       </c>
-      <c r="C34" t="s">
-        <v>353</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -6289,7 +6584,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6314,287 +6609,287 @@
     </row>
     <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>67</v>
@@ -6603,12 +6898,12 @@
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>67</v>
@@ -6617,12 +6912,12 @@
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>67</v>
@@ -6631,12 +6926,12 @@
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>67</v>
@@ -6645,12 +6940,12 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>67</v>
@@ -6659,12 +6954,12 @@
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>67</v>
@@ -6673,12 +6968,12 @@
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>67</v>
@@ -6687,12 +6982,12 @@
         <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>67</v>
@@ -6701,12 +6996,12 @@
         <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>67</v>
@@ -6715,12 +7010,12 @@
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>67</v>
@@ -6729,12 +7024,12 @@
         <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>67</v>
@@ -6743,12 +7038,12 @@
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>67</v>
@@ -6757,12 +7052,12 @@
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>67</v>
@@ -6771,12 +7066,12 @@
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>67</v>
@@ -6785,12 +7080,12 @@
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>67</v>
@@ -6799,12 +7094,12 @@
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>67</v>
@@ -6813,12 +7108,12 @@
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>67</v>
@@ -6827,12 +7122,12 @@
         <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>67</v>
@@ -6841,12 +7136,12 @@
         <v>13</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>67</v>
@@ -6855,12 +7150,12 @@
         <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>67</v>
@@ -6869,12 +7164,12 @@
         <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>67</v>
@@ -6883,12 +7178,12 @@
         <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>67</v>
@@ -6897,12 +7192,12 @@
         <v>13</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>67</v>
@@ -6911,12 +7206,12 @@
         <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>67</v>
@@ -6925,12 +7220,12 @@
         <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>67</v>
@@ -6939,12 +7234,12 @@
         <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>67</v>
@@ -6953,12 +7248,12 @@
         <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>67</v>
@@ -6967,12 +7262,12 @@
         <v>13</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>67</v>
@@ -6981,12 +7276,12 @@
         <v>13</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>67</v>
@@ -6995,12 +7290,12 @@
         <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>67</v>
@@ -7009,12 +7304,12 @@
         <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>67</v>
@@ -7023,12 +7318,12 @@
         <v>13</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>67</v>
@@ -7037,12 +7332,12 @@
         <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>67</v>
@@ -7051,12 +7346,12 @@
         <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>67</v>
@@ -7065,12 +7360,12 @@
         <v>13</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>67</v>
@@ -7079,12 +7374,12 @@
         <v>13</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>67</v>
@@ -7093,12 +7388,12 @@
         <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>67</v>
@@ -7107,12 +7402,12 @@
         <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>67</v>
@@ -7121,12 +7416,12 @@
         <v>13</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>67</v>
@@ -7135,12 +7430,12 @@
         <v>13</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>67</v>
@@ -7149,7 +7444,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -7160,10 +7455,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7177,251 +7472,265 @@
         <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="B2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="324" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="378" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="324" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="324" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>428</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>446</v>
+      <c r="B19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19" t="s">
+        <v>570</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/config/grammar.xlsx
+++ b/config/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="0" windowWidth="21105" windowHeight="12495" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="5835" windowWidth="28815" windowHeight="6660" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="628">
   <si>
     <t>名称为中文开头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>引用template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>引用slot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,10 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称大小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容为标点符号时例句匹配不区分全角半角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,14 +426,6 @@
   </si>
   <si>
     <t>内容不修改，新增例句不匹配任何grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容不修改，新增例句不匹配当前grammar但匹配其他的grammar,未添加到语料库中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，新例句也不匹配其他grammar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -719,12 +703,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"_nihao",
-"content":"你好",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"nihao1",
 "content":"你好",
 "msg":"提交成功!"}</t>
@@ -802,11 +780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"nihao",
-"content":"你好","msg":"删除成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"nihao4",
 "content":"你好",
 "msg":"提交成功!"}</t>
@@ -912,14 +885,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"xiudianshi",
-"content":"修电视",
-"corpus":"拆电视",
-"answer":"null",
-"msg":"提交失败!例句不能匹配当前grammar"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"maidongxi",
 "content":"买西瓜",
 "corpus":"买西瓜",
@@ -1025,14 +990,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"jianggushi",
-"content":"讲故事",
-"corpus":"想听音乐",
-"answer":"null",
-"msg":"new corpus cannot match grammar"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"shuogushi",
 "content":"说故事",
 "corpus":"说故事",
@@ -1069,14 +1026,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"shejigushi",
-"content":"设计一段故事",
-"corpus":"设计一个故事",
-"answer":"null",
-"msg":"提交失败!例句不能匹配当前grammar"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"miaoshugushi",
 "content":"描述故事",
 "corpus":"描述故事",
@@ -1085,14 +1034,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"miaoshugushi",
-"content":"描述(故事|小说)",
-"corpus":"描述战争",
-"answer":"null",
-"msg":"提交失败!例句不能匹配当前grammar"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，新例句匹配其他grammar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1173,23 +1114,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"xiangchipingguo",
-"content":"吃瓜了",
-"corpus":"吃苹果",
-"answer":"null",
-"msg":"can not match any corpus"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容修改，新grammar不匹配当前例句但匹配之前的例句，新例句也不匹配其他grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"tinggushi",
-"content":"听故事",
-"corpus":"听啥",
-"answer":"null",
-"msg":"提交失败!例句不能匹配当前grammar"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1289,14 +1214,6 @@
   </si>
   <si>
     <t>skipper规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"skipper",
-"content":"你还好[吗]",
-"corpus":"！！！你还好，，，吗。。。",
-"answer":"null",
-"msg":"提交成功!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1985,28 +1902,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"听音乐",
-"content":"听音乐",
-"corpus":"听音乐",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"ting",
-"content":"(听听|听见)&lt;{@=ting}&gt;",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"仰望星空",
-"content":"仰望星空",
-"corpus":"仰望星空",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"yaochipingguo",
 "content":"吃苹果",
 "corpus":"吃苹果",
@@ -2015,18 +1910,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"说故事",
-"content":"说故事",
-"corpus":"说故事",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，新例句也不匹配其他grammar，之前例句匹配其他grammar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2051,23 +1934,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"jiangshugushi",
-"content":"讲述一个故事",
-"corpus":"吃苹果",
-"answer":"null",
-"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"讲述故事",
 "content":"讲述故事",
 "corpus":"讲述故事",
 "answer":"null",
 "msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addChange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3184,15 +3055,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"skya",
-"type":"ext",
-"subtype":"null",
-"min":"1",
-"max":"50",
-"msg":"提交成!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"你好",
 "content":"你好",
 "msg":"提交成功!"}</t>
@@ -3316,14 +3178,6 @@
   </si>
   <si>
     <t>修改slot赋值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"kaifadianshi",
-"content":"&lt;kaifa&gt;电视&lt;{kaifa+=TV}&gt;",
-"corpus":"开发电视",
-"answer":"null",
-"msg":"提交成功!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3354,6 +3208,542 @@
   </si>
   <si>
     <t>开发电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"nihao",
+"content":"你好","msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"仰望星空",
+"content":"仰望星空",
+"corpus":"仰望星空",
+"answer":"null",
+"msg":"can not match any corpus, it must have at least one corpus."}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"听点音乐",
+"content":"听点音乐",
+"corpus":"听点音乐",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"ting",
+"content":"(听|听见|听点)&lt;{@=ting}&gt;",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用不存在的slot_modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"do",
+"content":"(做|做点|做下)&lt;{do@=do}&gt;",
+"msg":"is neither a slot name nor the global intention"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"skipper",
+"content":"你还好[吗]",
+"corpus":"！！！你还好，，，吗。。。",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"",
+"content":"你好",
+"msg":"名称不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"sd",
+"content":"",
+"msg":"内容不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"你好",
+"content":"",
+"msg":"内容不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称为特殊字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称是数字开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"**",
+"content":"abc",
+"msg":"名称是英文字母、汉字或下划线，不能以数字开头"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"123",
+"content":"abc",
+"msg":"名称是英文字母、汉字或下划线，不能以数字开头"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用不存在的rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"rule1",
+"content":"&lt;rule2&gt;",
+"msg":"&lt;rule2&gt; is not defined"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用内容为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"rule3",
+"content":"&lt;&gt;",
+"msg":"no viable alternative at input '&lt;&gt;'"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"_nihao",
+"content":"你好",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"kaifadianshi",
+"content":"&lt;kaifa&gt;电视&lt;{kaifa+=TV}&gt;",
+"corpus":"制造电视",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称是数字开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称是特殊字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"123",
+"content":"abc",
+"corpus":"abc",
+"answer":"null",
+"msg":"名称是英文字母、汉字或下划线，不能以数字开头"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"**",
+"content":"abc",
+"corpus":"abc",
+"answer":"null",
+"msg":"名称是英文字母、汉字或下划线，不能以数字开头"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称为大写+小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"",
+"content":"abc",
+"corpus":"abc",
+"answer":"null",
+"msg":"名称不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称忽略大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"grammar1",
+"content":"",
+"corpus":"abc",
+"answer":"null",
+"msg":"内容不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"Grammar",
+"content":"abc",
+"corpus":"abc",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用不存在的slot、template或rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"感谢",
+"content":"&lt;xiexie&gt;你",
+"corpus":"谢谢你",
+"answer":"null",
+"msg":"&lt;xiexie&gt; is not defined"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用间接赋值的Slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用间接赋值的Slot配合”+=“</t>
+  </si>
+  <si>
+    <t>{"name":"tingxiqu",
+"content":"&lt;ting{device=$}&gt;戏曲",
+"corpus":"听戏曲",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"tinghuju",
+"content":"&lt;{device=沪剧}&gt;&lt;ting{device+=$}&gt;沪剧",
+"corpus":"听沪剧",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容包含slot条件赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"tingguangbo",
+"content":"&lt;ting{device=广播}&gt;广播",
+"corpus":"听广播",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容包含slot作为条件赋值的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"kaifawuqi",
+"content":"&lt;kaifa{kaifa+=武器}&gt;武器",
+"corpus":"开发武器",
+"answer":"null",
+"msg":"slot cannot have assignment expression"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot从左到右多次赋值不同的值，查看最终赋值结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xiexing",
+"content":"写信&lt;{device+=d}&gt;&lt;{device+=e}&gt;&lt;{device+=v}&gt;&lt;{device+=i}&gt;",
+"corpus":"写信",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xiudianshi",
+"content":"修电视",
+"corpus":"拆电视",
+"answer":"null",
+"msg":"new corpus cannot match any grammar"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xiangchipingguo",
+"content":"吃瓜了",
+"corpus":"吃苹果",
+"answer":"null",
+"msg":" corpus cannot match grammar: &lt;xiangchipingguo&gt;"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例句为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"grammar3",
+"content":"abc",
+"corpus":"abc",
+"answer":"",
+"msg":"答案至少填写一个"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"grammar2",
+"content":"abc",
+"corpus":"",
+"answer":"null",
+"msg":"例句不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案中有slot赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"观测天空",
+"content":"观测&lt;sky&gt;",
+"corpus":"观测天空",
+"answer":"&lt;SKY&gt;好美",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容不修改，新增例句不匹配当前grammar但匹配其他的grammar,未添加到语料库中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"tinggushi",
+"content":"听故事",
+"corpus":"听啥",
+"answer":"null",
+"msg":"new corpus cannot match any grammar"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"jianggushi",
+"content":"讲故事",
+"corpus":"想听音乐",
+"answer":"null",
+"msg":"new corpus cannot match grammar"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容不修改，新增例句不匹配当前grammar但匹配其他的grammar,已添加到语料库中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"jianggushi",
+"content":"讲故事",
+"corpus":"听故事",
+"answer":"null",
+"msg":"corpus cannot match grammar"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，之前例句之匹配当前grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"说故事",
+"content":"说故事",
+"corpus":"说故事",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"miaoshugushi",
+"content":"描述(故事|小说)",
+"corpus":"描述战争",
+"answer":"null",
+"msg":"new corpus cannot match any grammar"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"jiangshugushi",
+"content":"吃苹果",
+"corpus":"吃苹果",
+"answer":"null",
+"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"shejigushi",
+"content":"设计一段故事",
+"corpus":"设计一个故事",
+"answer":"null",
+"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听沪剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "听沪剧",
+        "slots": [
+          {
+            "name": "device",
+            "value": "沪剧听"
+          }
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听见戏曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "听见戏曲",
+        "slots": [
+          {
+            "name": "device",
+            "value": "听见"
+          }
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "写信",
+        "slots": [
+          {
+            "name": "device",
+            "value": "devi"
+          }
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听广播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "app5",
+        "input": "听广播",
+        "slots": [
+          {
+            "name": "device",
+            "value": "广播"
+          }
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "app5"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称是英文加数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"chitaozi123",
+"content":"吃桃子123",
+"corpus":"吃桃子123",
+"answer":"null",
+"msg":"提交成功!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3433,7 +3823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3459,6 +3849,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3761,10 +4154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3778,16 +4171,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3795,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3809,13 +4202,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3823,13 +4216,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>142</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -3837,405 +4230,503 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>563</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>561</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>564</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>82</v>
+        <v>562</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>566</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>562</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>567</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>554</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>562</v>
+        <v>81</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>558</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>554</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>559</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>537</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>149</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>528</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>150</v>
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>531</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>13</v>
+        <v>533</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>151</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>152</v>
+        <v>29</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>225</v>
+        <v>557</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>570</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>394</v>
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>393</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>158</v>
+        <v>81</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>379</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>159</v>
+      <c r="D36" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4248,7 +4739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -4263,282 +4754,282 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4551,8 +5042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4566,338 +5057,338 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4909,10 +5400,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4926,828 +5417,1052 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>576</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>561</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>163</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>626</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>164</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>577</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>561</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>166</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>581</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>561</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>583</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>584</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>168</v>
+        <v>586</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>602</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>586</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>169</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>603</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>586</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>236</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>237</v>
+        <v>29</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>563</v>
+        <v>60</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>566</v>
+        <v>29</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>567</v>
+        <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>568</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>590</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>172</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>594</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>591</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>241</v>
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>240</v>
+        <v>542</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>396</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>99</v>
+        <v>596</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>176</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>100</v>
+        <v>546</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>177</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>102</v>
+        <v>598</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>178</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>229</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>238</v>
+        <v>92</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>239</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>61</v>
+      <c r="A38" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>179</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>98</v>
+      <c r="A39" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>61</v>
+      <c r="A40" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>182</v>
+        <v>29</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>61</v>
+      <c r="A44" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>183</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>105</v>
+      <c r="A45" s="11" t="s">
+        <v>606</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>184</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>382</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>398</v>
+        <v>29</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>400</v>
+        <v>216</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>401</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>186</v>
+        <v>558</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>61</v>
+        <v>588</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>189</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>188</v>
+      <c r="A53" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>61</v>
+      <c r="A54" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>211</v>
+      <c r="A55" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>408</v>
+    </row>
+    <row r="66" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -5775,16 +6490,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -5792,27 +6507,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -5820,27 +6535,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -5848,27 +6563,27 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -5876,55 +6591,55 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5938,7 +6653,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5950,44 +6665,44 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
+    </row>
+    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>561</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>562</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -6014,265 +6729,265 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D13" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D16" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B17" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D17" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C18" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C19" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="D19" s="9">
         <v>3</v>
@@ -6280,13 +6995,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="C20" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D20" s="9">
         <v>5</v>
@@ -6294,282 +7009,282 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C22" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C23" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B24" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C24" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B25" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C25" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B26" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C26" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B27" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B28" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C28" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="B29" t="s">
-        <v>342</v>
-      </c>
-      <c r="C29" t="s">
-        <v>343</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B30" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C30" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B31" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C31" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B32" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C32" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B33" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C33" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B34" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C34" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B35" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C35" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B36" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C36" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B37" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C37" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B38" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C38" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C39" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C40" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -6583,7 +7298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -6595,856 +7310,856 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -7455,282 +8170,339 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="56.5" customWidth="1"/>
+    <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14" t="s">
+        <v>402</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>408</v>
+      </c>
+      <c r="B16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C7" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C8" t="s">
-        <v>416</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="324" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C10" t="s">
-        <v>418</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="337.5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B11" t="s">
-        <v>428</v>
-      </c>
-      <c r="C11" t="s">
-        <v>419</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="364.5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>428</v>
-      </c>
-      <c r="B12" t="s">
-        <v>428</v>
-      </c>
-      <c r="C12" t="s">
-        <v>420</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="378" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>428</v>
-      </c>
-      <c r="B13" t="s">
-        <v>428</v>
-      </c>
-      <c r="C13" t="s">
-        <v>421</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="324" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>428</v>
-      </c>
-      <c r="B14" t="s">
-        <v>428</v>
-      </c>
-      <c r="C14" t="s">
-        <v>422</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>428</v>
-      </c>
-      <c r="B15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C15" t="s">
-        <v>423</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>428</v>
-      </c>
-      <c r="B16" t="s">
-        <v>428</v>
-      </c>
-      <c r="C16" t="s">
-        <v>424</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>428</v>
-      </c>
-      <c r="B17" t="s">
-        <v>428</v>
-      </c>
-      <c r="C17" t="s">
-        <v>426</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>428</v>
-      </c>
-      <c r="B18" t="s">
-        <v>428</v>
-      </c>
-      <c r="C18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="324" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="C19" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>569</v>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C21" t="s">
+        <v>620</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" t="s">
+        <v>622</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>408</v>
+      </c>
+      <c r="B23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" t="s">
+        <v>624</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/config/grammar.xlsx
+++ b/config/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5835" windowWidth="28815" windowHeight="6660" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="28815" windowHeight="6405" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="引用数据" sheetId="9" r:id="rId8"/>
     <sheet name="corpus" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="765">
   <si>
     <t>名称为中文开头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,14 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正常修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会影响corpus的修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,14 +226,6 @@
   </si>
   <si>
     <t>内容引用rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容引用template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容引用slot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -490,14 +474,6 @@
     <t>{"name":"temp8",
 "content":"[=短句=]吃$(短句)",
 "msg":"删除失败!已被使用!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"hedongxi",
-"content":"&lt;temp7(东西)&gt;",
-"corpus":"喝东西",
-"answer":"null",
-"msg":"提交成功!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -537,15 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"device2",
-"type":"datetime",
-"subtype":"null",
-"min":"20",
-"max":"50",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"device3",
 "type":"datetime",
 "subtype":"timepoint",
@@ -621,15 +588,6 @@
     <t>{"name":"device11",
 "type":"internal",
 "subtype":"null",
-"min":"1",
-"max":"1024",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"device11",
-"type":"datetime",
-"subtype":"timepoint",
 "min":"1",
 "max":"1024",
 "msg":"提交成功!"}</t>
@@ -754,12 +712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"你好",
-"content":"你好",
-"msg":"提交失败!命名产生冲突!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"NIHAO",
 "content":"你好",
 "msg":"提交失败!命名产生冲突!"}</t>
@@ -990,14 +942,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"shuogushi",
-"content":"说故事",
-"corpus":"说故事",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"biangushi",
 "content":"编故事",
 "corpus":"编故事",
@@ -1160,12 +1104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"temp1",
-"content":"[=短句=]吃$(短句)",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"_temp",
 "content":"[=短句=]吃$(短句)",
 "msg":"提交成功!"}</t>
@@ -1693,10 +1631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百科非洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>它面积多大你知道吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1813,10 +1747,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毛泽东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1837,47 +1767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"shuogushi",
-"content":"说些故事",
-"corpus":"说些故事",
-"answer":"null",
-"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"ting",
-"content":"(听听|听见)&lt;{@=ting}&gt;",
-"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"temp5",
-"content":"[=短句=]想吃一些$(短句)",
-"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"device12",
-"type":"ext",
-"subtype":"null",
-"min":"5",
-"max":"1024",
-"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百科四川省</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1894,55 +1783,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改rule，corpus无匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改rule，corpus有匹配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"yaochipingguo",
-"content":"吃苹果",
-"corpus":"吃苹果",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，新例句也不匹配其他grammar，之前例句匹配其他grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"shuogushi",
-"content":"说些故事",
-"corpus":"说些故事",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ready</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，新例句匹配其他grammar,之前例句匹配其他grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"讲述故事",
-"content":"讲述故事",
-"corpus":"讲述故事",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"jiangshugushi",
 "content":"吃苹果",
 "corpus":"吃苹果",
 "answer":"null",
@@ -3061,14 +2906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"它面积多大",
-"content":"它&lt;{州@=last}&gt;面积多大[你知道吗]",
-"corpus":"它面积多大",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容包含slot赋值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3268,18 +3105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"",
-"content":"你好",
-"msg":"名称不能为空"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"sd",
-"content":"",
-"msg":"内容不能为空"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>addError</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3296,23 +3121,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"你好",
-"content":"",
-"msg":"内容不能为空"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称为特殊字符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称是数字开头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"**",
-"content":"abc",
-"msg":"名称是英文字母、汉字或下划线，不能以数字开头"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3579,39 +3392,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，之前例句之匹配当前grammar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"说故事",
-"content":"说故事",
-"corpus":"说故事",
-"answer":"null",
-"msg":"提交成功!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"name":"miaoshugushi",
 "content":"描述(故事|小说)",
 "corpus":"描述战争",
 "answer":"null",
 "msg":"new corpus cannot match any grammar"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"jiangshugushi",
-"content":"吃苹果",
-"corpus":"吃苹果",
-"answer":"null",
-"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"shejigushi",
-"content":"设计一段故事",
-"corpus":"设计一个故事",
-"answer":"null",
-"msg":"提交失败！以下例句的新匹配结果与旧结果不一致"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3744,6 +3529,985 @@
 "corpus":"吃桃子123",
 "answer":"null",
 "msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容为特殊字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp12",
+"content":"**",
+"msg":"提交失败!编译错误!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"水果",
+"content":"苹果|香蕉|桃子",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"吃水果",
+"content":"[=短句=]吃&lt;水果&gt;$(短句)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有定义参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义两个参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp14",
+"content":"吃",
+"msg":"missing template argument list"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp13",
+"content":"[=a,b=]吃$(a)喝$(b)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"吃菜",
+"content":"[=短句=]吃&lt;菜&gt;$(短句)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"菜",
+"type":"ext",
+"subtype":"null",
+"min":"1",
+"max":"20",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义template申明参数，没有引用参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp15",
+"content":"[=短句=]吃",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义template申明参数，引用一个没有申明的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp16",
+"content":"[=短句=]吃$(s)",
+"msg":"named argument 's' not declared"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改template，对corpus没有影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp17",
+"content":"[=短句=]想喝$(短句)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"zuodongxi",
+"content":"想做东西",
+"corpus":"想做东西",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp17",
+"content":"[=短句=]想(喝|做)$(短句)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"你好",
+"content":"你好",
+"msg":"提交失败!命名产生冲突!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"模板",
+"content":"[=短句=]吃$(短句)",
+"msg":"提交失败!命名产生冲突!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主类型为空，子类型不为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"",
+"content":"你好",
+"msg":"名称不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"",
+"content":"[=短句=]吃$(短句)",
+"msg":"名称不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"",
+"type":"ext",
+"mainType":"人物",
+"subType":"null",
+"msg":"名称不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"**",
+"content":"abc",
+"msg":"名称是英文字母、汉字或下划线，不能以数字开头"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"**",
+"content":"[=短句=]吃$(短句)",
+"msg":"名称是英文字母、汉字或下划线，不能以数字开头"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"123temp",
+"content":"[=短句=]吃$(短句)",
+"msg":"名称是英文字母、汉字或下划线，不能以数字开头"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"你好",
+"content":"",
+"msg":"内容不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp11",
+"content":"",
+"msg":"内容不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device2",
+"type":"datetime",
+"subtype":"null",
+"min":"20",
+"max":"50",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device11",
+"type":"datetime",
+"subtype":"timepoint",
+"min":"2",
+"max":"10",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改类型，影响corpus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改最小值，影响corpus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改最大值，影响corpus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device11",
+"type":"datetime",
+"subtype":"duration",
+"min":"2",
+"max":"10",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device11",
+"type":"ext",
+"subtype":"null",
+"min":"2",
+"max":"10",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device11",
+"type":"float",
+"subtype":"null",
+"min":"2",
+"max":"10",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device11",
+"type":"number",
+"subtype":"null",
+"min":"2",
+"max":"10",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常修改为timepoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常修改为duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常修改为ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常修改为float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常修改number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常修改ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device11",
+"type":"internal",
+"subtype":"null",
+"min":"2",
+"max":"10",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"修电视",
+"content":"修&lt;device15&gt;",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device15",
+"type":"ext",
+"subtype":"null",
+"min":"1",
+"max":"1024",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device15",
+"type":"ext",
+"subtype":"null",
+"min":"1",
+"max":"1024",
+"msg":"删除失败!已被使用!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"laidianpingguo",
+"content":"&lt;chipingguo&gt;不",
+"corpus":"吃苹果不",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用template，template参数为rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用template，template参数为slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"菜",
+"type":"ext",
+"subtype":"null",
+"min":"1",
+"max":"50",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"chicai",
+"content":"&lt;chi(&lt;菜&gt;)&gt;",
+"corpus":"吃菜",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用template，template有两个参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"chidongxitingyinyue",
+"content":"&lt;chi(水果&lt;ting&gt;音乐)&gt;",
+"corpus":"吃水果听音乐",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"chihe",
+"content":"[=a,b=]吃$(a)喝$(b)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"chixianghela",
+"content":"&lt;chihe(香,辣)&gt;",
+"corpus":"吃香喝辣",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用slot_ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内荣引用slot_datetime_timepoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"时间点",
+"type":"datetime",
+"subtype":"timepoint",
+"min":"1",
+"max":"50",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"时间点的天气",
+"content":"&lt;时间点&gt;的天气",
+"corpus":"下午六点的天气",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"时间段",
+"type":"datetime",
+"subtype":"duration",
+"min":"1",
+"max":"50",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内荣引用slot_datetime_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"number",
+"type":"number",
+"subtype":"null",
+"min":"1",
+"max":"50",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容引用slot_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"number的平方",
+"content":"&lt;number&gt;的平方",
+"corpus":"2的平方",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"float",
+"type":"float",
+"subtype":"null",
+"min":"1",
+"max":"50",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"float的次方",
+"content":"&lt;float&gt;的次方",
+"corpus":"2.5的次方",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp1",
+"content":"[=短句=]吃$(短句)",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容修改，新grammar匹配当前例句但不匹配之前的例句，之前例句不匹配其他grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"123",
+"type":"ext",
+"mainType":"人物",
+"subType":"null",
+"msg":"名称是英文字母、汉字或下划线"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"**",
+"type":"ext",
+"mainType":"人物",
+"subType":"null",
+"msg":"名称是英文字母、汉字或下划线"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"设备",
+"type":"datetime",
+"subtype":"timepoint",
+"min":"1",
+"max":"20",
+"msg":"提交失败!命名产生冲突!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"onlysubtype",
+"type":"ext",
+"mainType":"",
+"subType":"test",
+"msg":"必须先添加主类别，才可添加子类别"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"hedongxi",
+"content":"&lt;temp7(东西)&gt;",
+"corpus":"喝东西",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"xianghedongxi",
+"content":"&lt;temp17(东西)&gt;",
+"corpus":"想喝东西",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"shejigushi",
+"content":"设计一段故事",
+"corpus":"设计一个故事",
+"answer":"null",
+"msg":"new corpus cannot match any grammar"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"temp5",
+"content":"[=短句=]想吃一些$(短句)",
+"msg":"it must have at least one corpus"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device12",
+"type":"datetime",
+"subtype":"null",
+"min":"1",
+"max":"1024",
+"msg":"it must have at least one corpus"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device12",
+"type":"ext",
+"subtype":"null",
+"min":"1",
+"max":"1",
+"msg":"it must have at least one corpus"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"device12",
+"type":"ext",
+"subtype":"null",
+"min":"5",
+"max":"1024",
+"msg":"it must have at least one corpus"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"jiangshugushi",
+"content":"吃苹果",
+"corpus":"吃苹果",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改rule，grammar无匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"ting",
+"content":"(听听|听见)&lt;{@=ting}&gt;",
+"msg":" it must have at least one corpus"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"时间段到了吗",
+"content":"&lt;时间段&gt;到了吗",
+"corpus":"三星期到了吗",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"ashuogushi",
+"content":"说故事",
+"corpus":"说故事",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"ashuogushi",
+"content":"说些故事",
+"corpus":"说些故事",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"MYAPP1",
+"msg":"already exit"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称是数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称是特殊符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"123",
+"msg":"名称是英文字母、汉字或下划线"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"**",
+"msg":"名称是英文字母、汉字或下划线"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"",
+"msg":"名称不能为空"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"story",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"news",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"math24",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"math24",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"chat_comm",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"chat_comm",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"sample",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"sample",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"navi",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"navi",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"story",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"openweb",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"openweb",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"tvplay",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"tvplay",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"movie",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"movie",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"meeting",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"meeting",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"smarthome",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"smarthome",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"controlcommand",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"controlcommand",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"imagesearch",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"imagesearch",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"zipcode",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"zipcode",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"tvprogram",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"tvprogram",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"tingshu",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"tingshu",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"date",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"date",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"video",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"video",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"poi",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"poi",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"news",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"music",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"music",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"cyclopaedia",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"cyclopaedia",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"translate",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"translate",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"sms",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"sms",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"openapp",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"openapp",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"search",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"search",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"joke",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"joke",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"exchangerate",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"exchangerate",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"cooking",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"cooking",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"contact",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"contact",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"globalpattern",
+"msg":"模块导入成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"globalpattern",
+"msg":"删除成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"它面积多大",
+"content":"它&lt;{州@=last}&gt;面积多大[你知道吗]",
+"corpus":"它面积多大",
+"answer":"null",
+"msg":"提交成功!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科欧洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4156,8 +4920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4171,16 +4935,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4188,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4202,13 +4966,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4216,13 +4980,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4230,83 +4994,83 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4314,27 +5078,27 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4342,55 +5106,55 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4398,139 +5162,139 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4538,13 +5302,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4552,13 +5316,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4566,139 +5330,139 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>146</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>379</v>
+        <v>687</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>371</v>
+        <v>679</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>372</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4706,13 +5470,13 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4720,13 +5484,13 @@
         <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4737,10 +5501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4754,16 +5518,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4771,265 +5535,517 @@
         <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>616</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>210</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>207</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>206</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
+      <c r="A8" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>205</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
+      <c r="A9" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>594</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>204</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
+      <c r="A10" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>592</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>202</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+      <c r="A12" s="3" t="s">
+        <v>600</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>371</v>
+        <v>601</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>373</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
+      <c r="A13" s="3" t="s">
+        <v>599</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>601</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>107</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>596</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>114</v>
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>595</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>596</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>111</v>
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>606</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>112</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>113</v>
+      <c r="D38" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5040,10 +6056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5057,16 +6073,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -5074,321 +6090,531 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>619</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>116</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>621</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>621</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>621</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>620</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>621</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>123</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>124</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>131</v>
+      <c r="D18" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>374</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>639</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>133</v>
+        <v>631</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>640</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>641</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>135</v>
+        <v>13</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>642</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>136</v>
+      <c r="D33" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -5400,10 +6626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5417,385 +6643,385 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>651</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>652</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>163</v>
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>653</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>220</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>656</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>224</v>
+        <v>659</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>221</v>
+        <v>649</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>592</v>
+        <v>29</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>594</v>
+        <v>660</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>591</v>
+        <v>56</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>66</v>
@@ -5803,55 +7029,55 @@
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="D28" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>60</v>
+        <v>661</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>544</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>542</v>
+        <v>665</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>596</v>
+        <v>56</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>66</v>
@@ -5859,27 +7085,27 @@
       <c r="C32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>597</v>
+      <c r="D32" s="5" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>66</v>
@@ -5887,125 +7113,125 @@
       <c r="C34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>599</v>
+      <c r="D34" s="5" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>59</v>
+        <v>667</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>381</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>601</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>562</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>167</v>
+        <v>12</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>96</v>
+        <v>559</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>66</v>
@@ -6013,456 +7239,596 @@
       <c r="C43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="D43" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>552</v>
+        <v>12</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
-        <v>606</v>
+      <c r="A45" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>607</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>98</v>
+        <v>564</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>169</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>99</v>
+        <v>518</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>170</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>100</v>
+        <v>566</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>171</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>217</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>558</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>225</v>
+        <v>88</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>226</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>588</v>
+        <v>90</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>60</v>
+      <c r="A53" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>97</v>
+      <c r="A54" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>60</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>174</v>
+      <c r="D55" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>609</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>60</v>
+      <c r="A59" s="11" t="s">
+        <v>574</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>176</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>608</v>
+        <v>94</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>610</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>611</v>
+        <v>95</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>612</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>613</v>
+        <v>206</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>368</v>
+        <v>12</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>369</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>614</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>382</v>
+        <v>215</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>383</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>60</v>
+        <v>556</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D67" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>60</v>
+      <c r="A68" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D69" s="3" t="s">
-        <v>617</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>615</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>616</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>384</v>
+      <c r="A74" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>385</v>
+        <v>84</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>387</v>
+        <v>578</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>386</v>
+        <v>579</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>388</v>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -6473,10 +7839,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6490,16 +7856,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -6507,27 +7873,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -6535,27 +7901,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -6563,27 +7929,27 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -6591,55 +7957,937 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>211</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -6653,7 +8901,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="A2:D3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6668,7 +8916,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>28</v>
@@ -6677,32 +8925,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>79</v>
+    <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>560</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -6715,8 +8963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6729,265 +8977,265 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D17" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D19" s="9">
         <v>3</v>
@@ -6995,13 +9243,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="C20" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D20" s="9">
         <v>5</v>
@@ -7009,282 +9257,282 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C24" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B25" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C26" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C27" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B28" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B29" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C29" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>763</v>
       </c>
       <c r="C31" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>362</v>
+        <v>764</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C32" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C33" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C34" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C35" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C36" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C37" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C38" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C39" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C40" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7298,8 +9546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7310,856 +9558,856 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>527</v>
+        <v>762</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -8172,8 +10420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8185,324 +10433,324 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C3" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C5" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B6" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C7" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C9" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C10" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B11" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C11" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B12" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C12" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B13" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C13" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B14" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C14" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B15" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C16" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B17" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C17" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B18" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C18" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B19" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C19" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B20" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C20" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B21" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C21" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B22" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C22" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C23" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/config/grammar.xlsx
+++ b/config/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="28815" windowHeight="6405" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="28815" windowHeight="6405" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -6058,8 +6058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8900,8 +8900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8925,32 +8925,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>56</v>
+    <row r="2" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>93</v>
+      <c r="D2" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>165</v>
+        <v>70</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -8963,7 +8963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>

--- a/config/grammar.xlsx
+++ b/config/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="28815" windowHeight="6405" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="28815" windowHeight="6405" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -4503,11 +4503,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百科欧洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧洲</t>
+    <t>百科大洋洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大洋洲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6629,7 +6629,7 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:D68"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8900,8 +8900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8963,8 +8963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
